--- a/tables/column_name_translations/LV_column_name_translation.xlsx
+++ b/tables/column_name_translations/LV_column_name_translation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FB905D-5840-4B66-AA2D-D8EEF7FFCA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998F617D-9B5A-4738-B46F-B65B968819F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>field_id</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>LV_2023</t>
+  </si>
+  <si>
+    <t>PRODUCT_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>AREA_DECLARED</t>
+  </si>
+  <si>
+    <t>LV_2024</t>
   </si>
 </sst>
 </file>
@@ -470,7 +479,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I9" sqref="I9"/>
+      <selection pane="topRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,6 +515,9 @@
       <c r="H1" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -532,7 +544,9 @@
       <c r="H2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -612,7 +626,9 @@
       <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -639,7 +655,9 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -792,7 +810,9 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>

--- a/tables/column_name_translations/LV_column_name_translation.xlsx
+++ b/tables/column_name_translations/LV_column_name_translation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998F617D-9B5A-4738-B46F-B65B968819F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FB905D-5840-4B66-AA2D-D8EEF7FFCA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>field_id</t>
   </si>
@@ -131,15 +131,6 @@
   </si>
   <si>
     <t>LV_2023</t>
-  </si>
-  <si>
-    <t>PRODUCT_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>AREA_DECLARED</t>
-  </si>
-  <si>
-    <t>LV_2024</t>
   </si>
 </sst>
 </file>
@@ -479,7 +470,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I13" sqref="I13"/>
+      <selection pane="topRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,9 +506,6 @@
       <c r="H1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -544,9 +532,7 @@
       <c r="H2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -626,9 +612,7 @@
       <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -655,9 +639,7 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -810,9 +792,7 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
